--- a/Gantt_projet_3.xlsx
+++ b/Gantt_projet_3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Planejador de Projetos" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Planejador de Projetos'!$3:$4</definedName>
@@ -997,7 +998,1237 @@
     <cellStyle name="Valor do Período" xfId="13"/>
     <cellStyle name="Vérification" xfId="31" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="103">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1499,8 +2730,8 @@
   </sheetPr>
   <dimension ref="B1:BO28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AO22" sqref="AO22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.875" defaultRowHeight="30.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1537,7 +2768,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="22" t="s">
@@ -1858,7 +3089,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2034,9 +3265,11 @@
       <c r="E15" s="6">
         <v>6</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
       <c r="G15" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2049,10 +3282,12 @@
       <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6">
+        <v>7</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2082,11 +3317,11 @@
         <v>3</v>
       </c>
       <c r="E18" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="7">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2099,10 +3334,12 @@
       <c r="D19" s="6">
         <v>1</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6">
+        <v>8</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="7">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2237,64 +3474,64 @@
     <mergeCell ref="AD2:AK2"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BO8 H10:BO28">
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="102" priority="9">
       <formula>PorcentagemConcluída</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="11">
+    <cfRule type="expression" dxfId="101" priority="11">
       <formula>PercentualConcluídoAlém</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="12">
+    <cfRule type="expression" dxfId="100" priority="12">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="99" priority="13">
       <formula>RealAlém</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="98" priority="14">
       <formula>Plano</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="97" priority="15">
       <formula>H$4=período_selecionado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="19">
+    <cfRule type="expression" dxfId="96" priority="19">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="20">
+    <cfRule type="expression" dxfId="95" priority="20">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:BO29">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="94" priority="10">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="93" priority="16">
       <formula>H$4=período_selecionado</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:BO9">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="92" priority="1">
       <formula>PorcentagemConcluída</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="91" priority="2">
       <formula>PercentualConcluídoAlém</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="90" priority="3">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="89" priority="4">
       <formula>RealAlém</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="88" priority="5">
       <formula>Plano</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="87" priority="6">
       <formula>H$4=período_selecionado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="86" priority="7">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="85" priority="8">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2325,4 +3562,18 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Gantt_projet_3.xlsx
+++ b/Gantt_projet_3.xlsx
@@ -16,16 +16,16 @@
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Planejador de Projetos'!$3:$4</definedName>
-    <definedName name="PercentualConcluídoAlém">('Planejador de Projetos'!A$4=MEDIAN('Planejador de Projetos'!A$4,'Planejador de Projetos'!$E1,'Planejador de Projetos'!$E1+'Planejador de Projetos'!$F1)*('Planejador de Projetos'!$E1&gt;0))*(('Planejador de Projetos'!A$4&lt;(INT('Planejador de Projetos'!$E1+'Planejador de Projetos'!$F1*'Planejador de Projetos'!$G1)))+('Planejador de Projetos'!A$4='Planejador de Projetos'!$E1))*('Planejador de Projetos'!$G1&gt;0)</definedName>
-    <definedName name="período_selecionado">'Planejador de Projetos'!$H$2</definedName>
-    <definedName name="PeríodonoPlano">'Planejador de Projetos'!A$4=MEDIAN('Planejador de Projetos'!A$4,'Planejador de Projetos'!$C1,'Planejador de Projetos'!$C1+'Planejador de Projetos'!$D1-1)</definedName>
-    <definedName name="PeríodoReal">'Planejador de Projetos'!A$4=MEDIAN('Planejador de Projetos'!A$4,'Planejador de Projetos'!$E1,'Planejador de Projetos'!$E1+'Planejador de Projetos'!$F1-1)</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Planejador de Projetos'!$6:$7</definedName>
+    <definedName name="PercentualConcluídoAlém">('Planejador de Projetos'!A$7=MEDIAN('Planejador de Projetos'!A$7,'Planejador de Projetos'!$E1,'Planejador de Projetos'!$E1+'Planejador de Projetos'!$F1)*('Planejador de Projetos'!$E1&gt;0))*(('Planejador de Projetos'!A$7&lt;(INT('Planejador de Projetos'!$E1+'Planejador de Projetos'!$F1*'Planejador de Projetos'!$G1)))+('Planejador de Projetos'!A$7='Planejador de Projetos'!$E1))*('Planejador de Projetos'!$G1&gt;0)</definedName>
+    <definedName name="período_selecionado">'Planejador de Projetos'!$H$5</definedName>
+    <definedName name="PeríodonoPlano">'Planejador de Projetos'!A$7=MEDIAN('Planejador de Projetos'!A$7,'Planejador de Projetos'!$C1,'Planejador de Projetos'!$C1+'Planejador de Projetos'!$D1-1)</definedName>
+    <definedName name="PeríodoReal">'Planejador de Projetos'!A$7=MEDIAN('Planejador de Projetos'!A$7,'Planejador de Projetos'!$E1,'Planejador de Projetos'!$E1+'Planejador de Projetos'!$F1-1)</definedName>
     <definedName name="Plano">PeríodonoPlano*('Planejador de Projetos'!$C1&gt;0)</definedName>
     <definedName name="PorcentagemConcluída">PercentualConcluídoAlém*PeríodonoPlano</definedName>
     <definedName name="Real">(PeríodoReal*('Planejador de Projetos'!$E1&gt;0))*PeríodonoPlano</definedName>
     <definedName name="RealAlém">PeríodoReal*('Planejador de Projetos'!$E1&gt;0)</definedName>
-    <definedName name="RegiãodoTítulo..BO60">'Planejador de Projetos'!$B$3:$B$4</definedName>
+    <definedName name="RegiãodoTítulo..BO60">'Planejador de Projetos'!$B$6:$B$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -133,9 +133,6 @@
     <t>Sécurité</t>
   </si>
   <si>
-    <t>Préparation de la présentation</t>
-  </si>
-  <si>
     <t>Seconde switchblock</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Lab IPV4</t>
+  </si>
+  <si>
+    <t>Préparation de la présentation et documentation</t>
   </si>
 </sst>
 </file>
@@ -833,7 +833,7 @@
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -870,9 +870,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="13" fillId="6" borderId="1" xfId="13">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -906,9 +903,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
@@ -935,6 +929,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -998,1237 +1004,7 @@
     <cellStyle name="Valor do Período" xfId="13"/>
     <cellStyle name="Vérification" xfId="31" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="103">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -2728,10 +1504,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO28"/>
+  <dimension ref="B1:BO31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AO22" sqref="AO22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B8" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.875" defaultRowHeight="30.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2743,390 +1519,341 @@
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.375" style="4" customWidth="1"/>
-    <col min="8" max="27" width="2.875" style="1"/>
+    <col min="8" max="19" width="2.875" style="1"/>
+    <col min="20" max="20" width="2.875" style="1" customWidth="1"/>
+    <col min="21" max="27" width="2.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="2:67" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="2:67" ht="21.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="29"/>
+    </row>
+    <row r="2" spans="2:67" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="33"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+    </row>
+    <row r="3" spans="2:67" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="33"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="31"/>
+    </row>
+    <row r="4" spans="2:67" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="B4" s="33"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="31"/>
+    </row>
+    <row r="5" spans="2:67" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="5" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H5" s="12">
+        <v>11</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+    </row>
+    <row r="6" spans="2:67" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="22" t="s">
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+    </row>
+    <row r="7" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="24"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
         <v>2</v>
       </c>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="32" t="s">
+      <c r="J7" s="3">
         <v>3</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="22" t="s">
+      <c r="K7" s="3">
         <v>4</v>
       </c>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="22" t="s">
+      <c r="L7" s="3">
         <v>5</v>
       </c>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="23"/>
-      <c r="AU2" s="23"/>
-      <c r="AV2" s="23"/>
-      <c r="AW2" s="23"/>
-      <c r="AX2" s="23"/>
-    </row>
-    <row r="3" spans="2:67" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="M7" s="3">
+        <v>6</v>
+      </c>
+      <c r="N7" s="3">
+        <v>7</v>
+      </c>
+      <c r="O7" s="3">
+        <v>8</v>
+      </c>
+      <c r="P7" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>10</v>
+      </c>
+      <c r="R7" s="3">
+        <v>11</v>
+      </c>
+      <c r="S7" s="3">
         <v>12</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="29" t="s">
+      <c r="T7" s="3">
         <v>13</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-    </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>2</v>
-      </c>
-      <c r="J4" s="3">
-        <v>3</v>
-      </c>
-      <c r="K4" s="3">
-        <v>4</v>
-      </c>
-      <c r="L4" s="3">
-        <v>5</v>
-      </c>
-      <c r="M4" s="3">
-        <v>6</v>
-      </c>
-      <c r="N4" s="3">
-        <v>7</v>
-      </c>
-      <c r="O4" s="3">
-        <v>8</v>
-      </c>
-      <c r="P4" s="3">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>10</v>
-      </c>
-      <c r="R4" s="3">
-        <v>11</v>
-      </c>
-      <c r="S4" s="3">
-        <v>12</v>
-      </c>
-      <c r="T4" s="3">
-        <v>13</v>
-      </c>
-      <c r="U4" s="3">
+      <c r="U7" s="3">
         <v>14</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V7" s="3">
         <v>15</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W7" s="3">
         <v>16</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X7" s="3">
         <v>17</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y7" s="3">
         <v>18</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z7" s="3">
         <v>19</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA7" s="3">
         <v>20</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB7" s="3">
         <v>21</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC7" s="3">
         <v>22</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD7" s="3">
         <v>23</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AE7" s="3">
         <v>24</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AF7" s="3">
         <v>25</v>
       </c>
-      <c r="AG4" s="3">
+      <c r="AG7" s="3">
         <v>26</v>
       </c>
-      <c r="AH4" s="3">
+      <c r="AH7" s="3">
         <v>27</v>
       </c>
-      <c r="AI4" s="3">
+      <c r="AI7" s="3">
         <v>28</v>
       </c>
-      <c r="AJ4" s="3">
+      <c r="AJ7" s="3">
         <v>29</v>
       </c>
-      <c r="AK4" s="3">
+      <c r="AK7" s="3">
         <v>30</v>
       </c>
-      <c r="AL4" s="3">
+      <c r="AL7" s="3">
         <v>31</v>
       </c>
-      <c r="AM4" s="3">
+      <c r="AM7" s="3">
         <v>32</v>
       </c>
-      <c r="AN4" s="3">
+      <c r="AN7" s="3">
         <v>33</v>
       </c>
-      <c r="AO4" s="3">
+      <c r="AO7" s="3">
         <v>34</v>
       </c>
-      <c r="AP4" s="3">
+      <c r="AP7" s="3">
         <v>35</v>
       </c>
-      <c r="AQ4" s="3">
+      <c r="AQ7" s="3">
         <v>36</v>
       </c>
-      <c r="AR4" s="3">
+      <c r="AR7" s="3">
         <v>37</v>
       </c>
-      <c r="AS4" s="3">
+      <c r="AS7" s="3">
         <v>38</v>
       </c>
-      <c r="AT4" s="3">
+      <c r="AT7" s="3">
         <v>39</v>
       </c>
-      <c r="AU4" s="3">
+      <c r="AU7" s="3">
         <v>40</v>
       </c>
-      <c r="AV4" s="3">
+      <c r="AV7" s="3">
         <v>41</v>
       </c>
-      <c r="AW4" s="3">
+      <c r="AW7" s="3">
         <v>42</v>
       </c>
-      <c r="AX4" s="3">
+      <c r="AX7" s="3">
         <v>43</v>
       </c>
-      <c r="AY4" s="3">
+      <c r="AY7" s="3">
         <v>44</v>
       </c>
-      <c r="AZ4" s="3">
+      <c r="AZ7" s="3">
         <v>45</v>
       </c>
-      <c r="BA4" s="3">
+      <c r="BA7" s="3">
         <v>46</v>
       </c>
-      <c r="BB4" s="3">
+      <c r="BB7" s="3">
         <v>47</v>
       </c>
-      <c r="BC4" s="3">
+      <c r="BC7" s="3">
         <v>48</v>
       </c>
-      <c r="BD4" s="3">
+      <c r="BD7" s="3">
         <v>49</v>
       </c>
-      <c r="BE4" s="3">
+      <c r="BE7" s="3">
         <v>50</v>
       </c>
-      <c r="BF4" s="3">
+      <c r="BF7" s="3">
         <v>51</v>
       </c>
-      <c r="BG4" s="3">
+      <c r="BG7" s="3">
         <v>52</v>
       </c>
-      <c r="BH4" s="3">
+      <c r="BH7" s="3">
         <v>53</v>
       </c>
-      <c r="BI4" s="3">
+      <c r="BI7" s="3">
         <v>54</v>
       </c>
-      <c r="BJ4" s="3">
+      <c r="BJ7" s="3">
         <v>55</v>
       </c>
-      <c r="BK4" s="3">
+      <c r="BK7" s="3">
         <v>56</v>
       </c>
-      <c r="BL4" s="3">
+      <c r="BL7" s="3">
         <v>57</v>
       </c>
-      <c r="BM4" s="3">
+      <c r="BM7" s="3">
         <v>58</v>
       </c>
-      <c r="BN4" s="3">
+      <c r="BN7" s="3">
         <v>59</v>
       </c>
-      <c r="BO4" s="3">
+      <c r="BO7" s="3">
         <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>4</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
       </c>
       <c r="D8" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="7">
         <v>1</v>
@@ -3134,7 +1861,7 @@
     </row>
     <row r="9" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -3143,18 +1870,18 @@
         <v>2</v>
       </c>
       <c r="E9" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="20" t="s">
-        <v>15</v>
+      <c r="B10" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -3173,8 +1900,8 @@
       </c>
     </row>
     <row r="11" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="20" t="s">
-        <v>16</v>
+      <c r="B11" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -3186,15 +1913,15 @@
         <v>2</v>
       </c>
       <c r="F11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="20" t="s">
-        <v>22</v>
+      <c r="B12" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -3206,15 +1933,15 @@
         <v>2</v>
       </c>
       <c r="F12" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="20" t="s">
-        <v>24</v>
+      <c r="B13" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -3223,131 +1950,141 @@
         <v>2</v>
       </c>
       <c r="E13" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
-        <v>20</v>
+      <c r="B14" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="C14" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
       </c>
       <c r="E14" s="6">
+        <v>2</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>5</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6">
         <v>4</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F17" s="6">
         <v>2</v>
       </c>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C18" s="6">
         <v>4</v>
       </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
         <v>6</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F18" s="6">
         <v>2</v>
       </c>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C19" s="6">
         <v>4</v>
       </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
         <v>7</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7">
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="s">
+    <row r="20" spans="2:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C20" s="6">
         <v>5</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="6">
-        <v>5</v>
-      </c>
-      <c r="D18" s="6">
-        <v>3</v>
-      </c>
-      <c r="E18" s="6">
-        <v>8</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="6">
-        <v>8</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6">
-        <v>8</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="6">
-        <v>9</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -3359,59 +2096,87 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="21" t="s">
-        <v>30</v>
+      <c r="B21" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="C21" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="E21" s="6">
+        <v>8</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2</v>
+      </c>
       <c r="G21" s="7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="C22" s="6">
+        <v>8</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
+        <v>8</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
       <c r="G22" s="7">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="6">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>8</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2</v>
+      </c>
       <c r="G23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="B24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="6">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>11</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
       <c r="G24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="6"/>
@@ -3423,7 +2188,7 @@
       </c>
     </row>
     <row r="26" spans="2:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="6"/>
@@ -3435,7 +2200,7 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="6"/>
@@ -3447,7 +2212,7 @@
       </c>
     </row>
     <row r="28" spans="2:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="6"/>
@@ -3458,102 +2223,137 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="2:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="AM2:AX2"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AD2:AK2"/>
+  <mergeCells count="11">
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:R4"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO8 H10:BO28">
-    <cfRule type="expression" dxfId="102" priority="9">
+  <conditionalFormatting sqref="H8:BO11 H13:BO31">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>PorcentagemConcluída</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="11">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>PercentualConcluídoAlém</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="12">
+    <cfRule type="expression" dxfId="15" priority="12">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="13">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>RealAlém</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>Plano</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="15">
-      <formula>H$4=período_selecionado</formula>
+    <cfRule type="expression" dxfId="12" priority="15">
+      <formula>H$7=período_selecionado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="19">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="20">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:BO29">
-    <cfRule type="expression" dxfId="94" priority="10">
+  <conditionalFormatting sqref="B32:BO32">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="93" priority="16">
-      <formula>H$4=período_selecionado</formula>
+  <conditionalFormatting sqref="H7:BO7">
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>H$7=período_selecionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:BO9">
-    <cfRule type="expression" dxfId="92" priority="1">
+  <conditionalFormatting sqref="H12:BO12">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>PorcentagemConcluída</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>PercentualConcluídoAlém</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>RealAlém</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>Plano</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="6">
-      <formula>H$4=período_selecionado</formula>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>H$7=período_selecionado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="O Planejador de Projetos usa períodos de intervalos. Início=1 é o período de 1, e duração=5 significa que o projeto abrange cinco períodos começando pelo período de início. Insira dados começando em B5 para atualizar o gráfico." sqref="A1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Digite um valor de 1 a 60 ou selecione um período na lista, pressione Cancelar, Alt+Seta para baixo e Enter para selecionar um valor." prompt="Insira um período no intervalo de 1 a 60 ou selecione um período na lista. Pressione Alt+Seta para baixo para navegar pela lista e Enter para selecionar um valor." sqref="H2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="O Planejador de Projetos usa períodos de intervalos. Início=1 é o período de 1, e duração=5 significa que o projeto abrange cinco períodos começando pelo período de início. Insira dados começando em B5 para atualizar o gráfico." sqref="A4"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Digite um valor de 1 a 60 ou selecione um período na lista, pressione Cancelar, Alt+Seta para baixo e Enter para selecionar um valor." prompt="Insira um período no intervalo de 1 a 60 ou selecione um período na lista. Pressione Alt+Seta para baixo para navegar pela lista e Enter para selecionar um valor." sqref="H5">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a duração do plano." sqref="J2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a duração real." sqref="R2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a porcentagem concluída do projeto." sqref="W2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a duração real além do plano." sqref="AC2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a porcentagem concluída além do plano do projeto." sqref="AL2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Os períodos são transformados em gráficos de 1 a 60 iniciando da célula H4 até a célula BO4. " sqref="H3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a atividade na coluna B, começando na célula B5_x000a_" sqref="B3:B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o período de início do plano na coluna C, começando na célula C5." sqref="C3:C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o período de duração do plano na coluna D, começando na célula D5." sqref="D3:D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o período de início real na coluna E, começando na célula E5." sqref="E3:E4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o período de duração real na coluna F, começando na célula F5." sqref="F3:F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a porcentagem concluída do projeto na coluna G, começando na célula G5." sqref="G3:G4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a duração do plano." sqref="J1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a duração real." sqref="J2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a porcentagem concluída do projeto." sqref="J3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a duração real além do plano." sqref="J4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a porcentagem concluída além do plano do projeto." sqref="J5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Os períodos são transformados em gráficos de 1 a 60 iniciando da célula H4 até a célula BO4. " sqref="H6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a atividade na coluna B, começando na célula B5_x000a_" sqref="B6:B7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o período de início do plano na coluna C, começando na célula C5." sqref="C6:C7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o período de duração do plano na coluna D, começando na célula D5." sqref="D6:D7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o período de início real na coluna E, começando na célula E5." sqref="E6:E7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o período de duração real na coluna F, começando na célula F5." sqref="F6:F7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a porcentagem concluída do projeto na coluna G, começando na célula G5." sqref="G6:G7"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Título do projeto. Insira um novo título nesta célula. Realce um período em H2. A legenda do gráfico está em J2 a AI2" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Selecione um período para realçar em H2. Uma legenda do gráfico está em J2 a AI2." sqref="B2:F2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Selecione um período para realçar em H2. Uma legenda do gráfico está em J2 a AI2." sqref="B5:F5"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -3568,8 +2368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Gantt_projet_3.xlsx
+++ b/Gantt_projet_3.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Planejador de Projetos" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Planejador de Projetos'!$6:$7</definedName>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Projet 3</t>
   </si>
@@ -146,6 +145,9 @@
   </si>
   <si>
     <t>Préparation de la présentation et documentation</t>
+  </si>
+  <si>
+    <t>DEBUT REEL</t>
   </si>
 </sst>
 </file>
@@ -1506,8 +1508,8 @@
   </sheetPr>
   <dimension ref="B1:BO31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B8" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.875" defaultRowHeight="30.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1620,7 +1622,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>9</v>
@@ -2362,18 +2364,4 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>